--- a/html/resources/conditions.xlsx
+++ b/html/resources/conditions.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rgrouls/Dropbox/KI/ICW/werkgroep/code/CWI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="200" windowWidth="14720" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="10880" yWindow="460" windowWidth="14720" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>imgName</t>
   </si>
@@ -33,25 +38,16 @@
     <t>m</t>
   </si>
   <si>
-    <t>gist/vrouw1.jpg</t>
-  </si>
-  <si>
-    <t>gist/vrouw2.jpg</t>
-  </si>
-  <si>
-    <t>gist/vrouw3.jpg</t>
-  </si>
-  <si>
-    <t>gist/vrouw4.jpg</t>
-  </si>
-  <si>
-    <t>gist/man1.jpg</t>
+    <t>gist/vrouw2.png</t>
   </si>
   <si>
     <t>gist/man2.jpg</t>
   </si>
   <si>
-    <t>gist/man3.jpg</t>
+    <t>gist/dier5.png</t>
+  </si>
+  <si>
+    <t>gist/vrouw5.png</t>
   </si>
 </sst>
 </file>
@@ -115,6 +111,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -440,18 +441,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,68 +460,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>